--- a/classfiers/mega/welm/smote/WELM_tanh_smote_results.xlsx
+++ b/classfiers/mega/welm/smote/WELM_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6810810810810811</v>
+        <v>0.6420118343195266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6906077348066298</v>
+        <v>0.3121019108280255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6793478260869565</v>
+        <v>0.4474885844748859</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7127510304305885</v>
+        <v>0.6240454657423373</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5324324324324324</v>
+        <v>0.5591715976331361</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6860254083484575</v>
+        <v>0.6989898989898991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5303867403314918</v>
+        <v>0.709090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4918918918918919</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6492537313432836</v>
+        <v>0.6761133603238866</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5683674365504523</v>
+        <v>0.5551976471412067</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5702702702702702</v>
+        <v>0.7810650887573964</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6912621359223301</v>
+        <v>0.8102564102564103</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8839829119850188</v>
+        <v>0.8930126404494383</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6378378378378379</v>
+        <v>0.5059171597633136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.39</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5379310344827586</v>
+        <v>0.2893617021276596</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8328529411764706</v>
+        <v>0.5336728919071873</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5827027027027027</v>
+        <v>0.6029585798816568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8127317164528514</v>
+        <v>0.6941126580452259</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6487640272367573</v>
+        <v>0.5844419912345483</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7056682120948043</v>
+        <v>0.6630039108662157</v>
       </c>
     </row>
   </sheetData>
